--- a/Base/Backlog_3.xlsx
+++ b/Base/Backlog_3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\franciscoj\Python_Initial\Pyhton_Web\Base\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34F296D9-C214-4C61-8C6D-69C12DF4DF71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D068B6A4-D0B5-4D03-8818-5C5238E8AD51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-14505" yWindow="0" windowWidth="14085" windowHeight="15585" xr2:uid="{89A3EF9E-2AF9-420D-85DF-9BB5B68F651F}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{89A3EF9E-2AF9-420D-85DF-9BB5B68F651F}"/>
   </bookViews>
   <sheets>
     <sheet name="SPN" sheetId="1" r:id="rId1"/>
@@ -588,7 +588,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16A6A408-5BF6-4E16-8C71-EC6EB1F5A842}">
   <dimension ref="A1:J38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView topLeftCell="E1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
@@ -1505,8 +1505,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69362A46-9E44-40AB-81A2-018EE27C1DC6}">
   <dimension ref="A1:P22"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.5703125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>

--- a/Base/Backlog_3.xlsx
+++ b/Base/Backlog_3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\franciscoj\Python_Initial\Pyhton_Web\Base\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D068B6A4-D0B5-4D03-8818-5C5238E8AD51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27D763FC-6185-4665-A8E9-26B63C063F65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{89A3EF9E-2AF9-420D-85DF-9BB5B68F651F}"/>
   </bookViews>
@@ -198,12 +198,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -246,9 +252,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -270,6 +273,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -608,34 +614,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="E1" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="F1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="12" t="s">
+      <c r="G1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="12" t="s">
+      <c r="H1" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="I1" s="12" t="s">
+      <c r="I1" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="20" t="s">
+      <c r="J1" s="19" t="s">
         <v>14</v>
       </c>
     </row>
@@ -649,10 +655,10 @@
       <c r="C2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="14">
-        <v>45586</v>
-      </c>
-      <c r="E2" s="14">
+      <c r="D2" s="13">
+        <v>45586</v>
+      </c>
+      <c r="E2" s="13">
         <v>45590</v>
       </c>
       <c r="F2" s="2">
@@ -661,7 +667,7 @@
       <c r="G2" s="3">
         <v>45505</v>
       </c>
-      <c r="H2" s="14">
+      <c r="H2" s="13">
         <v>45590</v>
       </c>
       <c r="I2" s="1" t="s">
@@ -681,10 +687,10 @@
       <c r="C3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="14">
-        <v>45586</v>
-      </c>
-      <c r="E3" s="14">
+      <c r="D3" s="13">
+        <v>45586</v>
+      </c>
+      <c r="E3" s="13">
         <v>45590</v>
       </c>
       <c r="F3" s="2">
@@ -693,7 +699,7 @@
       <c r="G3" s="3">
         <v>45536</v>
       </c>
-      <c r="H3" s="14">
+      <c r="H3" s="13">
         <v>45590</v>
       </c>
       <c r="I3" s="1" t="s">
@@ -713,10 +719,10 @@
       <c r="C4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="14">
-        <v>45586</v>
-      </c>
-      <c r="E4" s="14">
+      <c r="D4" s="13">
+        <v>45586</v>
+      </c>
+      <c r="E4" s="13">
         <v>45590</v>
       </c>
       <c r="F4" s="2">
@@ -725,7 +731,7 @@
       <c r="G4" s="3">
         <v>45536</v>
       </c>
-      <c r="H4" s="14">
+      <c r="H4" s="13">
         <v>45590</v>
       </c>
       <c r="I4" s="1" t="s">
@@ -745,10 +751,10 @@
       <c r="C5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="14">
-        <v>45586</v>
-      </c>
-      <c r="E5" s="14">
+      <c r="D5" s="13">
+        <v>45586</v>
+      </c>
+      <c r="E5" s="13">
         <v>45590</v>
       </c>
       <c r="F5" s="2">
@@ -757,7 +763,7 @@
       <c r="G5" s="3">
         <v>45536</v>
       </c>
-      <c r="H5" s="14">
+      <c r="H5" s="13">
         <v>45590</v>
       </c>
       <c r="I5" s="1" t="s">
@@ -777,10 +783,10 @@
       <c r="C6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="14">
-        <v>45586</v>
-      </c>
-      <c r="E6" s="14">
+      <c r="D6" s="13">
+        <v>45586</v>
+      </c>
+      <c r="E6" s="13">
         <v>45590</v>
       </c>
       <c r="F6" s="2">
@@ -789,7 +795,7 @@
       <c r="G6" s="3">
         <v>45536</v>
       </c>
-      <c r="H6" s="14">
+      <c r="H6" s="13">
         <v>45590</v>
       </c>
       <c r="I6" s="1" t="s">
@@ -809,10 +815,10 @@
       <c r="C7" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="14">
-        <v>45586</v>
-      </c>
-      <c r="E7" s="14">
+      <c r="D7" s="13">
+        <v>45586</v>
+      </c>
+      <c r="E7" s="13">
         <v>45590</v>
       </c>
       <c r="F7" s="2">
@@ -821,7 +827,7 @@
       <c r="G7" s="3">
         <v>45566</v>
       </c>
-      <c r="H7" s="14">
+      <c r="H7" s="13">
         <v>45590</v>
       </c>
       <c r="I7" s="1" t="s">
@@ -841,10 +847,10 @@
       <c r="C8" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="14">
-        <v>45586</v>
-      </c>
-      <c r="E8" s="14">
+      <c r="D8" s="13">
+        <v>45586</v>
+      </c>
+      <c r="E8" s="13">
         <v>45590</v>
       </c>
       <c r="F8" s="2">
@@ -853,7 +859,7 @@
       <c r="G8" s="3">
         <v>45566</v>
       </c>
-      <c r="H8" s="14">
+      <c r="H8" s="13">
         <v>45590</v>
       </c>
       <c r="I8" s="1" t="s">
@@ -873,10 +879,10 @@
       <c r="C9" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D9" s="14">
-        <v>45586</v>
-      </c>
-      <c r="E9" s="14">
+      <c r="D9" s="13">
+        <v>45586</v>
+      </c>
+      <c r="E9" s="13">
         <v>45590</v>
       </c>
       <c r="F9" s="2">
@@ -885,7 +891,7 @@
       <c r="G9" s="3">
         <v>45566</v>
       </c>
-      <c r="H9" s="14">
+      <c r="H9" s="13">
         <v>45590</v>
       </c>
       <c r="I9" s="1" t="s">
@@ -905,10 +911,10 @@
       <c r="C10" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D10" s="14">
-        <v>45586</v>
-      </c>
-      <c r="E10" s="14">
+      <c r="D10" s="13">
+        <v>45586</v>
+      </c>
+      <c r="E10" s="13">
         <v>45590</v>
       </c>
       <c r="F10" s="2">
@@ -917,7 +923,7 @@
       <c r="G10" s="3">
         <v>45566</v>
       </c>
-      <c r="H10" s="14">
+      <c r="H10" s="13">
         <v>45590</v>
       </c>
       <c r="I10" s="1" t="s">
@@ -937,10 +943,10 @@
       <c r="C11" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D11" s="14">
-        <v>45586</v>
-      </c>
-      <c r="E11" s="14">
+      <c r="D11" s="13">
+        <v>45586</v>
+      </c>
+      <c r="E11" s="13">
         <v>45590</v>
       </c>
       <c r="F11" s="2">
@@ -949,7 +955,7 @@
       <c r="G11" s="3">
         <v>45566</v>
       </c>
-      <c r="H11" s="14">
+      <c r="H11" s="13">
         <v>45590</v>
       </c>
       <c r="I11" s="1" t="s">
@@ -969,10 +975,10 @@
       <c r="C12" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D12" s="14">
-        <v>45586</v>
-      </c>
-      <c r="E12" s="14">
+      <c r="D12" s="13">
+        <v>45586</v>
+      </c>
+      <c r="E12" s="13">
         <v>45590</v>
       </c>
       <c r="F12" s="2">
@@ -981,7 +987,7 @@
       <c r="G12" s="3">
         <v>45566</v>
       </c>
-      <c r="H12" s="14">
+      <c r="H12" s="13">
         <v>45590</v>
       </c>
       <c r="I12" s="1" t="s">
@@ -1001,10 +1007,10 @@
       <c r="C13" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D13" s="14">
-        <v>45586</v>
-      </c>
-      <c r="E13" s="14">
+      <c r="D13" s="13">
+        <v>45586</v>
+      </c>
+      <c r="E13" s="13">
         <v>45590</v>
       </c>
       <c r="F13" s="2">
@@ -1013,7 +1019,7 @@
       <c r="G13" s="3">
         <v>45566</v>
       </c>
-      <c r="H13" s="14">
+      <c r="H13" s="13">
         <v>45590</v>
       </c>
       <c r="I13" s="1" t="s">
@@ -1033,10 +1039,10 @@
       <c r="C14" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D14" s="14">
-        <v>45586</v>
-      </c>
-      <c r="E14" s="14">
+      <c r="D14" s="13">
+        <v>45586</v>
+      </c>
+      <c r="E14" s="13">
         <v>45590</v>
       </c>
       <c r="F14" s="2">
@@ -1045,7 +1051,7 @@
       <c r="G14" s="3">
         <v>45474</v>
       </c>
-      <c r="H14" s="14">
+      <c r="H14" s="13">
         <v>45590</v>
       </c>
       <c r="I14" s="1" t="s">
@@ -1065,10 +1071,10 @@
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="14">
-        <v>45586</v>
-      </c>
-      <c r="E15" s="14">
+      <c r="D15" s="13">
+        <v>45586</v>
+      </c>
+      <c r="E15" s="13">
         <v>45590</v>
       </c>
       <c r="F15" s="2">
@@ -1077,7 +1083,7 @@
       <c r="G15" s="3">
         <v>45505</v>
       </c>
-      <c r="H15" s="14">
+      <c r="H15" s="13">
         <v>45590</v>
       </c>
       <c r="I15" s="1" t="s">
@@ -1097,10 +1103,10 @@
       <c r="C16" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D16" s="14">
-        <v>45586</v>
-      </c>
-      <c r="E16" s="14">
+      <c r="D16" s="13">
+        <v>45586</v>
+      </c>
+      <c r="E16" s="13">
         <v>45590</v>
       </c>
       <c r="F16" s="2">
@@ -1109,7 +1115,7 @@
       <c r="G16" s="3">
         <v>45536</v>
       </c>
-      <c r="H16" s="14">
+      <c r="H16" s="13">
         <v>45590</v>
       </c>
       <c r="I16" s="1" t="s">
@@ -1129,10 +1135,10 @@
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D17" s="14">
-        <v>45586</v>
-      </c>
-      <c r="E17" s="14">
+      <c r="D17" s="13">
+        <v>45586</v>
+      </c>
+      <c r="E17" s="13">
         <v>45590</v>
       </c>
       <c r="F17" s="2">
@@ -1141,7 +1147,7 @@
       <c r="G17" s="3">
         <v>45536</v>
       </c>
-      <c r="H17" s="14">
+      <c r="H17" s="13">
         <v>45590</v>
       </c>
       <c r="I17" s="1" t="s">
@@ -1161,10 +1167,10 @@
       <c r="C18" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D18" s="14">
-        <v>45586</v>
-      </c>
-      <c r="E18" s="14">
+      <c r="D18" s="13">
+        <v>45586</v>
+      </c>
+      <c r="E18" s="13">
         <v>45590</v>
       </c>
       <c r="F18" s="2">
@@ -1173,7 +1179,7 @@
       <c r="G18" s="3">
         <v>45536</v>
       </c>
-      <c r="H18" s="14">
+      <c r="H18" s="13">
         <v>45590</v>
       </c>
       <c r="I18" s="1" t="s">
@@ -1193,10 +1199,10 @@
       <c r="C19" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D19" s="14">
-        <v>45586</v>
-      </c>
-      <c r="E19" s="14">
+      <c r="D19" s="13">
+        <v>45586</v>
+      </c>
+      <c r="E19" s="13">
         <v>45590</v>
       </c>
       <c r="F19" s="2">
@@ -1205,7 +1211,7 @@
       <c r="G19" s="3">
         <v>45505</v>
       </c>
-      <c r="H19" s="14">
+      <c r="H19" s="13">
         <v>45590</v>
       </c>
       <c r="I19" s="1" t="s">
@@ -1225,10 +1231,10 @@
       <c r="C20" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D20" s="14">
-        <v>45586</v>
-      </c>
-      <c r="E20" s="14">
+      <c r="D20" s="13">
+        <v>45586</v>
+      </c>
+      <c r="E20" s="13">
         <v>45590</v>
       </c>
       <c r="F20" s="2">
@@ -1237,7 +1243,7 @@
       <c r="G20" s="3">
         <v>45566</v>
       </c>
-      <c r="H20" s="14">
+      <c r="H20" s="13">
         <v>45590</v>
       </c>
       <c r="I20" s="1" t="s">
@@ -1257,10 +1263,10 @@
       <c r="C21" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D21" s="14">
-        <v>45586</v>
-      </c>
-      <c r="E21" s="14">
+      <c r="D21" s="13">
+        <v>45586</v>
+      </c>
+      <c r="E21" s="13">
         <v>45590</v>
       </c>
       <c r="F21" s="2">
@@ -1269,7 +1275,7 @@
       <c r="G21" s="3">
         <v>45474</v>
       </c>
-      <c r="H21" s="14">
+      <c r="H21" s="13">
         <v>45590</v>
       </c>
       <c r="I21" s="1" t="s">
@@ -1289,10 +1295,10 @@
       <c r="C22" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D22" s="14">
-        <v>45586</v>
-      </c>
-      <c r="E22" s="14">
+      <c r="D22" s="13">
+        <v>45586</v>
+      </c>
+      <c r="E22" s="13">
         <v>45590</v>
       </c>
       <c r="F22" s="2">
@@ -1301,7 +1307,7 @@
       <c r="G22" s="3">
         <v>45566</v>
       </c>
-      <c r="H22" s="14">
+      <c r="H22" s="13">
         <v>45590</v>
       </c>
       <c r="I22" s="1" t="s">
@@ -1321,10 +1327,10 @@
       <c r="C23" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D23" s="14">
-        <v>45586</v>
-      </c>
-      <c r="E23" s="14">
+      <c r="D23" s="13">
+        <v>45586</v>
+      </c>
+      <c r="E23" s="13">
         <v>45590</v>
       </c>
       <c r="F23" s="2">
@@ -1333,7 +1339,7 @@
       <c r="G23" s="3">
         <v>45566</v>
       </c>
-      <c r="H23" s="14">
+      <c r="H23" s="13">
         <v>45590</v>
       </c>
       <c r="I23" s="1" t="s">
@@ -1353,10 +1359,10 @@
       <c r="C24" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D24" s="14">
-        <v>45586</v>
-      </c>
-      <c r="E24" s="14">
+      <c r="D24" s="13">
+        <v>45586</v>
+      </c>
+      <c r="E24" s="13">
         <v>45590</v>
       </c>
       <c r="F24" s="2">
@@ -1365,7 +1371,7 @@
       <c r="G24" s="3">
         <v>45566</v>
       </c>
-      <c r="H24" s="14">
+      <c r="H24" s="13">
         <v>45590</v>
       </c>
       <c r="I24" s="1" t="s">
@@ -1385,10 +1391,10 @@
       <c r="C25" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D25" s="14">
-        <v>45586</v>
-      </c>
-      <c r="E25" s="14">
+      <c r="D25" s="13">
+        <v>45586</v>
+      </c>
+      <c r="E25" s="13">
         <v>45590</v>
       </c>
       <c r="F25" s="2">
@@ -1397,7 +1403,7 @@
       <c r="G25" s="3">
         <v>45536</v>
       </c>
-      <c r="H25" s="14">
+      <c r="H25" s="13">
         <v>45590</v>
       </c>
       <c r="I25" s="1" t="s">
@@ -1417,10 +1423,10 @@
       <c r="C26" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D26" s="14">
-        <v>45586</v>
-      </c>
-      <c r="E26" s="14">
+      <c r="D26" s="13">
+        <v>45586</v>
+      </c>
+      <c r="E26" s="13">
         <v>45590</v>
       </c>
       <c r="F26" s="2">
@@ -1429,7 +1435,7 @@
       <c r="G26" s="3">
         <v>45536</v>
       </c>
-      <c r="H26" s="14">
+      <c r="H26" s="13">
         <v>45590</v>
       </c>
       <c r="I26" s="1" t="s">
@@ -1449,10 +1455,10 @@
       <c r="C27" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D27" s="14">
-        <v>45586</v>
-      </c>
-      <c r="E27" s="14">
+      <c r="D27" s="13">
+        <v>45586</v>
+      </c>
+      <c r="E27" s="13">
         <v>45590</v>
       </c>
       <c r="F27" s="2">
@@ -1461,7 +1467,7 @@
       <c r="G27" s="3">
         <v>45566</v>
       </c>
-      <c r="H27" s="14">
+      <c r="H27" s="13">
         <v>45590</v>
       </c>
       <c r="I27" s="1" t="s">
@@ -1472,27 +1478,27 @@
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C29" s="15"/>
+      <c r="C29" s="14"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D30" s="16"/>
+      <c r="D30" s="15"/>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C31" s="15"/>
-      <c r="F31" s="16"/>
+      <c r="C31" s="14"/>
+      <c r="F31" s="15"/>
     </row>
     <row r="33" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C33" s="15"/>
-      <c r="F33" s="16"/>
+      <c r="C33" s="14"/>
+      <c r="F33" s="15"/>
     </row>
     <row r="35" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C35" s="15"/>
+      <c r="C35" s="14"/>
     </row>
     <row r="37" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C37" s="15"/>
+      <c r="C37" s="14"/>
     </row>
     <row r="38" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="D38" s="16"/>
+      <c r="D38" s="15"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:I27" xr:uid="{16A6A408-5BF6-4E16-8C71-EC6EB1F5A842}"/>
@@ -1506,21 +1512,21 @@
   <dimension ref="A1:P22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="I21" sqref="I21:I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.5703125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.5703125" style="17" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.28515625" style="17" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.28515625" style="17" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.85546875" style="17" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.140625" style="17" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" style="17" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.140625" style="17" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.42578125" style="17" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.7109375" style="17" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="17" style="17" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.5703125" style="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.28515625" style="16" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.28515625" style="16" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.85546875" style="16" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.140625" style="16" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" style="16" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.140625" style="16" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.42578125" style="16" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="16" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17" style="16" bestFit="1" customWidth="1"/>
     <col min="11" max="16384" width="9.5703125" style="7"/>
   </cols>
   <sheetData>
@@ -1552,18 +1558,18 @@
       <c r="I1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="20" t="s">
+      <c r="J1" s="19" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="17" t="s">
+      <c r="C2" s="16" t="s">
         <v>11</v>
       </c>
       <c r="D2" s="8">
@@ -1572,7 +1578,7 @@
       <c r="E2" s="8">
         <v>45590</v>
       </c>
-      <c r="F2" s="17">
+      <c r="F2" s="16">
         <v>301630</v>
       </c>
       <c r="G2" s="9">
@@ -1581,21 +1587,21 @@
       <c r="H2" s="8">
         <v>45590</v>
       </c>
-      <c r="I2" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="J2" s="17" t="s">
+      <c r="I2" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="J2" s="16" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" s="17" t="s">
+      <c r="A3" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="19" t="s">
+      <c r="B3" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="17" t="s">
+      <c r="C3" s="16" t="s">
         <v>11</v>
       </c>
       <c r="D3" s="8">
@@ -1604,7 +1610,7 @@
       <c r="E3" s="8">
         <v>45590</v>
       </c>
-      <c r="F3" s="17">
+      <c r="F3" s="16">
         <v>303042</v>
       </c>
       <c r="G3" s="9">
@@ -1613,21 +1619,21 @@
       <c r="H3" s="8">
         <v>45590</v>
       </c>
-      <c r="I3" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="J3" s="17" t="s">
+      <c r="I3" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="J3" s="16" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A4" s="17" t="s">
+      <c r="A4" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="19" t="s">
+      <c r="B4" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="17" t="s">
+      <c r="C4" s="16" t="s">
         <v>11</v>
       </c>
       <c r="D4" s="8">
@@ -1636,7 +1642,7 @@
       <c r="E4" s="8">
         <v>45590</v>
       </c>
-      <c r="F4" s="17">
+      <c r="F4" s="16">
         <v>303197</v>
       </c>
       <c r="G4" s="9">
@@ -1645,21 +1651,21 @@
       <c r="H4" s="8">
         <v>45590</v>
       </c>
-      <c r="I4" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="J4" s="17" t="s">
+      <c r="I4" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="J4" s="16" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" s="17" t="s">
+      <c r="A5" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="19" t="s">
+      <c r="B5" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="17" t="s">
+      <c r="C5" s="16" t="s">
         <v>11</v>
       </c>
       <c r="D5" s="8">
@@ -1668,7 +1674,7 @@
       <c r="E5" s="8">
         <v>45590</v>
       </c>
-      <c r="F5" s="17">
+      <c r="F5" s="16">
         <v>303940</v>
       </c>
       <c r="G5" s="9">
@@ -1677,21 +1683,21 @@
       <c r="H5" s="8">
         <v>45590</v>
       </c>
-      <c r="I5" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="J5" s="17" t="s">
+      <c r="I5" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="J5" s="16" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" s="17" t="s">
+      <c r="A6" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="19" t="s">
+      <c r="B6" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="17" t="s">
+      <c r="C6" s="16" t="s">
         <v>11</v>
       </c>
       <c r="D6" s="8">
@@ -1709,21 +1715,21 @@
       <c r="H6" s="8">
         <v>45590</v>
       </c>
-      <c r="I6" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="J6" s="17" t="s">
+      <c r="I6" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="J6" s="16" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A7" s="17" t="s">
+      <c r="A7" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="19" t="s">
+      <c r="B7" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="17" t="s">
+      <c r="C7" s="16" t="s">
         <v>11</v>
       </c>
       <c r="D7" s="8">
@@ -1741,21 +1747,21 @@
       <c r="H7" s="8">
         <v>45590</v>
       </c>
-      <c r="I7" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="J7" s="17" t="s">
+      <c r="I7" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="J7" s="16" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A8" s="17" t="s">
+      <c r="A8" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="19" t="s">
+      <c r="B8" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="17" t="s">
+      <c r="C8" s="16" t="s">
         <v>11</v>
       </c>
       <c r="D8" s="8">
@@ -1773,21 +1779,21 @@
       <c r="H8" s="8">
         <v>45590</v>
       </c>
-      <c r="I8" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="J8" s="17" t="s">
+      <c r="I8" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="J8" s="16" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9" s="17" t="s">
+      <c r="A9" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="19" t="s">
+      <c r="B9" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="C9" s="17" t="s">
+      <c r="C9" s="16" t="s">
         <v>11</v>
       </c>
       <c r="D9" s="8">
@@ -1805,21 +1811,21 @@
       <c r="H9" s="8">
         <v>45590</v>
       </c>
-      <c r="I9" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="J9" s="17" t="s">
+      <c r="I9" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="J9" s="16" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A10" s="17" t="s">
+      <c r="A10" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="19" t="s">
+      <c r="B10" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="17" t="s">
+      <c r="C10" s="16" t="s">
         <v>11</v>
       </c>
       <c r="D10" s="8">
@@ -1828,7 +1834,7 @@
       <c r="E10" s="8">
         <v>45590</v>
       </c>
-      <c r="F10" s="17">
+      <c r="F10" s="16">
         <v>303363</v>
       </c>
       <c r="G10" s="9">
@@ -1837,21 +1843,21 @@
       <c r="H10" s="8">
         <v>45590</v>
       </c>
-      <c r="I10" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="J10" s="17" t="s">
+      <c r="I10" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="J10" s="16" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A11" s="17" t="s">
+      <c r="A11" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="19" t="s">
+      <c r="B11" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="C11" s="17" t="s">
+      <c r="C11" s="16" t="s">
         <v>11</v>
       </c>
       <c r="D11" s="8">
@@ -1860,7 +1866,7 @@
       <c r="E11" s="8">
         <v>45590</v>
       </c>
-      <c r="F11" s="17">
+      <c r="F11" s="16">
         <v>279106</v>
       </c>
       <c r="G11" s="9">
@@ -1869,27 +1875,27 @@
       <c r="H11" s="8">
         <v>45590</v>
       </c>
-      <c r="I11" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="J11" s="17" t="s">
+      <c r="I11" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="J11" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="K11" s="18"/>
-      <c r="L11" s="18"/>
-      <c r="M11" s="18"/>
-      <c r="N11" s="18"/>
-      <c r="O11" s="18"/>
-      <c r="P11" s="18"/>
+      <c r="K11" s="17"/>
+      <c r="L11" s="17"/>
+      <c r="M11" s="17"/>
+      <c r="N11" s="17"/>
+      <c r="O11" s="17"/>
+      <c r="P11" s="17"/>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A12" s="17" t="s">
+      <c r="A12" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="B12" s="19" t="s">
+      <c r="B12" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="C12" s="17" t="s">
+      <c r="C12" s="16" t="s">
         <v>11</v>
       </c>
       <c r="D12" s="8">
@@ -1898,7 +1904,7 @@
       <c r="E12" s="8">
         <v>45590</v>
       </c>
-      <c r="F12" s="17">
+      <c r="F12" s="16">
         <v>302085</v>
       </c>
       <c r="G12" s="9">
@@ -1907,21 +1913,21 @@
       <c r="H12" s="8">
         <v>45590</v>
       </c>
-      <c r="I12" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="J12" s="17" t="s">
+      <c r="I12" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="J12" s="16" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13" s="17" t="s">
+      <c r="A13" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="B13" s="19" t="s">
+      <c r="B13" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="C13" s="17" t="s">
+      <c r="C13" s="16" t="s">
         <v>11</v>
       </c>
       <c r="D13" s="8">
@@ -1930,7 +1936,7 @@
       <c r="E13" s="8">
         <v>45590</v>
       </c>
-      <c r="F13" s="17">
+      <c r="F13" s="16">
         <v>302167</v>
       </c>
       <c r="G13" s="9">
@@ -1939,21 +1945,21 @@
       <c r="H13" s="8">
         <v>45590</v>
       </c>
-      <c r="I13" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="J13" s="17" t="s">
+      <c r="I13" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="J13" s="16" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A14" s="17" t="s">
+      <c r="A14" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="B14" s="19" t="s">
+      <c r="B14" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="C14" s="17" t="s">
+      <c r="C14" s="16" t="s">
         <v>11</v>
       </c>
       <c r="D14" s="8">
@@ -1971,21 +1977,21 @@
       <c r="H14" s="8">
         <v>45590</v>
       </c>
-      <c r="I14" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="J14" s="17" t="s">
+      <c r="I14" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="J14" s="16" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A15" s="17" t="s">
+      <c r="A15" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="B15" s="19" t="s">
+      <c r="B15" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="C15" s="17" t="s">
+      <c r="C15" s="16" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="8">
@@ -2003,21 +2009,21 @@
       <c r="H15" s="8">
         <v>45590</v>
       </c>
-      <c r="I15" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="J15" s="17" t="s">
+      <c r="I15" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="J15" s="16" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A16" s="17" t="s">
+      <c r="A16" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="B16" s="19" t="s">
+      <c r="B16" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="C16" s="17" t="s">
+      <c r="C16" s="16" t="s">
         <v>11</v>
       </c>
       <c r="D16" s="8">
@@ -2035,21 +2041,21 @@
       <c r="H16" s="8">
         <v>45590</v>
       </c>
-      <c r="I16" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="J16" s="17" t="s">
+      <c r="I16" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="J16" s="16" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A17" s="17" t="s">
+      <c r="A17" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="B17" s="19" t="s">
+      <c r="B17" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="C17" s="17" t="s">
+      <c r="C17" s="16" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="8">
@@ -2058,7 +2064,7 @@
       <c r="E17" s="8">
         <v>45590</v>
       </c>
-      <c r="F17" s="17">
+      <c r="F17" s="16">
         <v>303394</v>
       </c>
       <c r="G17" s="9">
@@ -2067,21 +2073,21 @@
       <c r="H17" s="8">
         <v>45590</v>
       </c>
-      <c r="I17" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="J17" s="17" t="s">
+      <c r="I17" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="J17" s="16" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A18" s="17" t="s">
+      <c r="A18" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="B18" s="19" t="s">
+      <c r="B18" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="C18" s="17" t="s">
+      <c r="C18" s="16" t="s">
         <v>11</v>
       </c>
       <c r="D18" s="8">
@@ -2090,7 +2096,7 @@
       <c r="E18" s="8">
         <v>45590</v>
       </c>
-      <c r="F18" s="17">
+      <c r="F18" s="16">
         <v>300735</v>
       </c>
       <c r="G18" s="9">
@@ -2099,21 +2105,21 @@
       <c r="H18" s="8">
         <v>45590</v>
       </c>
-      <c r="I18" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="J18" s="17" t="s">
+      <c r="I18" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="J18" s="16" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A19" s="17" t="s">
+      <c r="A19" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="B19" s="19" t="s">
+      <c r="B19" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="C19" s="17" t="s">
+      <c r="C19" s="16" t="s">
         <v>11</v>
       </c>
       <c r="D19" s="8">
@@ -2131,21 +2137,21 @@
       <c r="H19" s="8">
         <v>45590</v>
       </c>
-      <c r="I19" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="J19" s="17" t="s">
+      <c r="I19" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="J19" s="16" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A20" s="17" t="s">
+      <c r="A20" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="B20" s="19" t="s">
+      <c r="B20" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="C20" s="17" t="s">
+      <c r="C20" s="16" t="s">
         <v>11</v>
       </c>
       <c r="D20" s="8">
@@ -2163,21 +2169,21 @@
       <c r="H20" s="8">
         <v>45590</v>
       </c>
-      <c r="I20" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="J20" s="17" t="s">
+      <c r="I20" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="J20" s="16" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A21" s="17" t="s">
+      <c r="A21" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="B21" s="19" t="s">
+      <c r="B21" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="C21" s="17" t="s">
+      <c r="C21" s="16" t="s">
         <v>11</v>
       </c>
       <c r="D21" s="8">
@@ -2195,21 +2201,21 @@
       <c r="H21" s="8">
         <v>45590</v>
       </c>
-      <c r="I21" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="J21" s="17" t="s">
+      <c r="I21" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="J21" s="16" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A22" s="17" t="s">
+      <c r="A22" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="B22" s="19" t="s">
+      <c r="B22" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="C22" s="17" t="s">
+      <c r="C22" s="16" t="s">
         <v>11</v>
       </c>
       <c r="D22" s="8">
@@ -2227,16 +2233,16 @@
       <c r="H22" s="8">
         <v>45590</v>
       </c>
-      <c r="I22" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="J22" s="17" t="s">
+      <c r="I22" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="J22" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="K22" s="18"/>
-      <c r="L22" s="18"/>
-      <c r="M22" s="18"/>
-      <c r="N22" s="18"/>
+      <c r="K22" s="17"/>
+      <c r="L22" s="17"/>
+      <c r="M22" s="17"/>
+      <c r="N22" s="17"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:I22" xr:uid="{69362A46-9E44-40AB-81A2-018EE27C1DC6}"/>

--- a/Base/Backlog_3.xlsx
+++ b/Base/Backlog_3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\franciscoj\Python_Initial\Pyhton_Web\Base\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27D763FC-6185-4665-A8E9-26B63C063F65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A72C18E-806C-44B3-87A5-54866E3575B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{89A3EF9E-2AF9-420D-85DF-9BB5B68F651F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{89A3EF9E-2AF9-420D-85DF-9BB5B68F651F}"/>
   </bookViews>
   <sheets>
     <sheet name="SPN" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="28">
   <si>
     <t>Backlog</t>
   </si>
@@ -74,9 +74,6 @@
   </si>
   <si>
     <t>Final_Semana</t>
-  </si>
-  <si>
-    <t>Semana 03</t>
   </si>
   <si>
     <t>Resolvido</t>
@@ -594,8 +591,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16A6A408-5BF6-4E16-8C71-EC6EB1F5A842}">
   <dimension ref="A1:J38"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -642,7 +639,7 @@
         <v>6</v>
       </c>
       <c r="J1" s="19" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
@@ -650,10 +647,10 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>11</v>
+        <v>16</v>
+      </c>
+      <c r="C2" s="16">
+        <v>3</v>
       </c>
       <c r="D2" s="13">
         <v>45586</v>
@@ -671,10 +668,10 @@
         <v>45590</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -682,10 +679,10 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>11</v>
+        <v>16</v>
+      </c>
+      <c r="C3" s="16">
+        <v>3</v>
       </c>
       <c r="D3" s="13">
         <v>45586</v>
@@ -703,10 +700,10 @@
         <v>45590</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -714,10 +711,10 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>11</v>
+        <v>16</v>
+      </c>
+      <c r="C4" s="16">
+        <v>3</v>
       </c>
       <c r="D4" s="13">
         <v>45586</v>
@@ -735,10 +732,10 @@
         <v>45590</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J4" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -746,10 +743,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>11</v>
+        <v>16</v>
+      </c>
+      <c r="C5" s="16">
+        <v>3</v>
       </c>
       <c r="D5" s="13">
         <v>45586</v>
@@ -767,10 +764,10 @@
         <v>45590</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J5" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
@@ -778,10 +775,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>11</v>
+        <v>16</v>
+      </c>
+      <c r="C6" s="16">
+        <v>3</v>
       </c>
       <c r="D6" s="13">
         <v>45586</v>
@@ -799,10 +796,10 @@
         <v>45590</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J6" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
@@ -810,10 +807,10 @@
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>11</v>
+        <v>16</v>
+      </c>
+      <c r="C7" s="16">
+        <v>3</v>
       </c>
       <c r="D7" s="13">
         <v>45586</v>
@@ -831,10 +828,10 @@
         <v>45590</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J7" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
@@ -842,10 +839,10 @@
         <v>4</v>
       </c>
       <c r="B8" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>11</v>
+        <v>16</v>
+      </c>
+      <c r="C8" s="16">
+        <v>3</v>
       </c>
       <c r="D8" s="13">
         <v>45586</v>
@@ -863,10 +860,10 @@
         <v>45590</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J8" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
@@ -874,10 +871,10 @@
         <v>4</v>
       </c>
       <c r="B9" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>11</v>
+        <v>16</v>
+      </c>
+      <c r="C9" s="16">
+        <v>3</v>
       </c>
       <c r="D9" s="13">
         <v>45586</v>
@@ -895,10 +892,10 @@
         <v>45590</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J9" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
@@ -906,10 +903,10 @@
         <v>4</v>
       </c>
       <c r="B10" t="s">
-        <v>17</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>11</v>
+        <v>16</v>
+      </c>
+      <c r="C10" s="16">
+        <v>3</v>
       </c>
       <c r="D10" s="13">
         <v>45586</v>
@@ -927,10 +924,10 @@
         <v>45590</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J10" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
@@ -938,10 +935,10 @@
         <v>4</v>
       </c>
       <c r="B11" t="s">
-        <v>17</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>11</v>
+        <v>16</v>
+      </c>
+      <c r="C11" s="16">
+        <v>3</v>
       </c>
       <c r="D11" s="13">
         <v>45586</v>
@@ -959,10 +956,10 @@
         <v>45590</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J11" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
@@ -970,10 +967,10 @@
         <v>4</v>
       </c>
       <c r="B12" t="s">
-        <v>17</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>11</v>
+        <v>16</v>
+      </c>
+      <c r="C12" s="16">
+        <v>3</v>
       </c>
       <c r="D12" s="13">
         <v>45586</v>
@@ -991,10 +988,10 @@
         <v>45590</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J12" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
@@ -1002,10 +999,10 @@
         <v>4</v>
       </c>
       <c r="B13" t="s">
-        <v>17</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>11</v>
+        <v>16</v>
+      </c>
+      <c r="C13" s="16">
+        <v>3</v>
       </c>
       <c r="D13" s="13">
         <v>45586</v>
@@ -1023,10 +1020,10 @@
         <v>45590</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J13" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
@@ -1034,10 +1031,10 @@
         <v>4</v>
       </c>
       <c r="B14" t="s">
-        <v>18</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>11</v>
+        <v>17</v>
+      </c>
+      <c r="C14" s="16">
+        <v>3</v>
       </c>
       <c r="D14" s="13">
         <v>45586</v>
@@ -1055,10 +1052,10 @@
         <v>45590</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J14" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
@@ -1066,10 +1063,10 @@
         <v>4</v>
       </c>
       <c r="B15" t="s">
-        <v>18</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>11</v>
+        <v>17</v>
+      </c>
+      <c r="C15" s="16">
+        <v>3</v>
       </c>
       <c r="D15" s="13">
         <v>45586</v>
@@ -1087,10 +1084,10 @@
         <v>45590</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J15" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
@@ -1098,10 +1095,10 @@
         <v>4</v>
       </c>
       <c r="B16" t="s">
-        <v>18</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>11</v>
+        <v>17</v>
+      </c>
+      <c r="C16" s="16">
+        <v>3</v>
       </c>
       <c r="D16" s="13">
         <v>45586</v>
@@ -1119,10 +1116,10 @@
         <v>45590</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J16" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
@@ -1130,10 +1127,10 @@
         <v>4</v>
       </c>
       <c r="B17" t="s">
-        <v>18</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>11</v>
+        <v>17</v>
+      </c>
+      <c r="C17" s="16">
+        <v>3</v>
       </c>
       <c r="D17" s="13">
         <v>45586</v>
@@ -1151,10 +1148,10 @@
         <v>45590</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J17" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
@@ -1162,10 +1159,10 @@
         <v>4</v>
       </c>
       <c r="B18" t="s">
-        <v>18</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>11</v>
+        <v>17</v>
+      </c>
+      <c r="C18" s="16">
+        <v>3</v>
       </c>
       <c r="D18" s="13">
         <v>45586</v>
@@ -1183,10 +1180,10 @@
         <v>45590</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J18" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
@@ -1194,10 +1191,10 @@
         <v>4</v>
       </c>
       <c r="B19" t="s">
-        <v>18</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>11</v>
+        <v>17</v>
+      </c>
+      <c r="C19" s="16">
+        <v>3</v>
       </c>
       <c r="D19" s="13">
         <v>45586</v>
@@ -1215,10 +1212,10 @@
         <v>45590</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J19" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
@@ -1226,10 +1223,10 @@
         <v>4</v>
       </c>
       <c r="B20" t="s">
-        <v>18</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>11</v>
+        <v>17</v>
+      </c>
+      <c r="C20" s="16">
+        <v>3</v>
       </c>
       <c r="D20" s="13">
         <v>45586</v>
@@ -1247,10 +1244,10 @@
         <v>45590</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J20" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
@@ -1258,10 +1255,10 @@
         <v>4</v>
       </c>
       <c r="B21" t="s">
-        <v>19</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>11</v>
+        <v>18</v>
+      </c>
+      <c r="C21" s="16">
+        <v>3</v>
       </c>
       <c r="D21" s="13">
         <v>45586</v>
@@ -1279,10 +1276,10 @@
         <v>45590</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J21" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
@@ -1290,10 +1287,10 @@
         <v>4</v>
       </c>
       <c r="B22" t="s">
-        <v>19</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>11</v>
+        <v>18</v>
+      </c>
+      <c r="C22" s="16">
+        <v>3</v>
       </c>
       <c r="D22" s="13">
         <v>45586</v>
@@ -1311,10 +1308,10 @@
         <v>45590</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J22" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
@@ -1322,10 +1319,10 @@
         <v>4</v>
       </c>
       <c r="B23" t="s">
-        <v>19</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>11</v>
+        <v>18</v>
+      </c>
+      <c r="C23" s="16">
+        <v>3</v>
       </c>
       <c r="D23" s="13">
         <v>45586</v>
@@ -1343,10 +1340,10 @@
         <v>45590</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J23" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
@@ -1354,10 +1351,10 @@
         <v>4</v>
       </c>
       <c r="B24" t="s">
-        <v>19</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>11</v>
+        <v>18</v>
+      </c>
+      <c r="C24" s="16">
+        <v>3</v>
       </c>
       <c r="D24" s="13">
         <v>45586</v>
@@ -1375,10 +1372,10 @@
         <v>45590</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J24" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
@@ -1386,10 +1383,10 @@
         <v>4</v>
       </c>
       <c r="B25" t="s">
-        <v>20</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>11</v>
+        <v>19</v>
+      </c>
+      <c r="C25" s="16">
+        <v>3</v>
       </c>
       <c r="D25" s="13">
         <v>45586</v>
@@ -1407,10 +1404,10 @@
         <v>45590</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J25" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
@@ -1418,10 +1415,10 @@
         <v>4</v>
       </c>
       <c r="B26" t="s">
-        <v>20</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>11</v>
+        <v>19</v>
+      </c>
+      <c r="C26" s="16">
+        <v>3</v>
       </c>
       <c r="D26" s="13">
         <v>45586</v>
@@ -1439,10 +1436,10 @@
         <v>45590</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J26" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
@@ -1450,10 +1447,10 @@
         <v>4</v>
       </c>
       <c r="B27" t="s">
-        <v>20</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>11</v>
+        <v>19</v>
+      </c>
+      <c r="C27" s="16">
+        <v>3</v>
       </c>
       <c r="D27" s="13">
         <v>45586</v>
@@ -1471,10 +1468,10 @@
         <v>45590</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J27" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
@@ -1511,8 +1508,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69362A46-9E44-40AB-81A2-018EE27C1DC6}">
   <dimension ref="A1:P22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="I21" sqref="I21:I22"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.5703125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1559,7 +1556,7 @@
         <v>6</v>
       </c>
       <c r="J1" s="19" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
@@ -1567,10 +1564,10 @@
         <v>5</v>
       </c>
       <c r="B2" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="C2" s="16" t="s">
-        <v>11</v>
+        <v>20</v>
+      </c>
+      <c r="C2" s="16">
+        <v>3</v>
       </c>
       <c r="D2" s="8">
         <v>45586</v>
@@ -1588,10 +1585,10 @@
         <v>45590</v>
       </c>
       <c r="I2" s="20" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J2" s="16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
@@ -1599,10 +1596,10 @@
         <v>5</v>
       </c>
       <c r="B3" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="C3" s="16" t="s">
-        <v>11</v>
+        <v>20</v>
+      </c>
+      <c r="C3" s="16">
+        <v>3</v>
       </c>
       <c r="D3" s="8">
         <v>45586</v>
@@ -1620,10 +1617,10 @@
         <v>45590</v>
       </c>
       <c r="I3" s="20" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J3" s="16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
@@ -1631,10 +1628,10 @@
         <v>5</v>
       </c>
       <c r="B4" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="C4" s="16" t="s">
-        <v>11</v>
+        <v>20</v>
+      </c>
+      <c r="C4" s="16">
+        <v>3</v>
       </c>
       <c r="D4" s="8">
         <v>45586</v>
@@ -1652,10 +1649,10 @@
         <v>45590</v>
       </c>
       <c r="I4" s="20" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J4" s="16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
@@ -1663,10 +1660,10 @@
         <v>5</v>
       </c>
       <c r="B5" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="C5" s="16" t="s">
-        <v>11</v>
+        <v>20</v>
+      </c>
+      <c r="C5" s="16">
+        <v>3</v>
       </c>
       <c r="D5" s="8">
         <v>45586</v>
@@ -1684,10 +1681,10 @@
         <v>45590</v>
       </c>
       <c r="I5" s="20" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J5" s="16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
@@ -1695,10 +1692,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="C6" s="16" t="s">
-        <v>11</v>
+        <v>20</v>
+      </c>
+      <c r="C6" s="16">
+        <v>3</v>
       </c>
       <c r="D6" s="8">
         <v>45586</v>
@@ -1716,10 +1713,10 @@
         <v>45590</v>
       </c>
       <c r="I6" s="20" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J6" s="16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
@@ -1727,10 +1724,10 @@
         <v>5</v>
       </c>
       <c r="B7" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="C7" s="16" t="s">
-        <v>11</v>
+        <v>20</v>
+      </c>
+      <c r="C7" s="16">
+        <v>3</v>
       </c>
       <c r="D7" s="8">
         <v>45586</v>
@@ -1748,10 +1745,10 @@
         <v>45590</v>
       </c>
       <c r="I7" s="20" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J7" s="16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
@@ -1759,10 +1756,10 @@
         <v>5</v>
       </c>
       <c r="B8" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="C8" s="16" t="s">
-        <v>11</v>
+        <v>20</v>
+      </c>
+      <c r="C8" s="16">
+        <v>3</v>
       </c>
       <c r="D8" s="8">
         <v>45586</v>
@@ -1780,10 +1777,10 @@
         <v>45590</v>
       </c>
       <c r="I8" s="20" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J8" s="16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
@@ -1791,10 +1788,10 @@
         <v>5</v>
       </c>
       <c r="B9" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="C9" s="16" t="s">
-        <v>11</v>
+        <v>20</v>
+      </c>
+      <c r="C9" s="16">
+        <v>3</v>
       </c>
       <c r="D9" s="8">
         <v>45586</v>
@@ -1812,10 +1809,10 @@
         <v>45590</v>
       </c>
       <c r="I9" s="20" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J9" s="16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
@@ -1823,10 +1820,10 @@
         <v>5</v>
       </c>
       <c r="B10" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="C10" s="16" t="s">
-        <v>11</v>
+        <v>21</v>
+      </c>
+      <c r="C10" s="16">
+        <v>3</v>
       </c>
       <c r="D10" s="8">
         <v>45586</v>
@@ -1844,10 +1841,10 @@
         <v>45590</v>
       </c>
       <c r="I10" s="20" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J10" s="16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
@@ -1855,10 +1852,10 @@
         <v>5</v>
       </c>
       <c r="B11" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="C11" s="16" t="s">
-        <v>11</v>
+        <v>22</v>
+      </c>
+      <c r="C11" s="16">
+        <v>3</v>
       </c>
       <c r="D11" s="8">
         <v>45586</v>
@@ -1876,10 +1873,10 @@
         <v>45590</v>
       </c>
       <c r="I11" s="20" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J11" s="16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K11" s="17"/>
       <c r="L11" s="17"/>
@@ -1893,10 +1890,10 @@
         <v>5</v>
       </c>
       <c r="B12" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="C12" s="16" t="s">
-        <v>11</v>
+        <v>22</v>
+      </c>
+      <c r="C12" s="16">
+        <v>3</v>
       </c>
       <c r="D12" s="8">
         <v>45586</v>
@@ -1914,10 +1911,10 @@
         <v>45590</v>
       </c>
       <c r="I12" s="20" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J12" s="16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
@@ -1925,10 +1922,10 @@
         <v>5</v>
       </c>
       <c r="B13" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="C13" s="16" t="s">
-        <v>11</v>
+        <v>22</v>
+      </c>
+      <c r="C13" s="16">
+        <v>3</v>
       </c>
       <c r="D13" s="8">
         <v>45586</v>
@@ -1946,10 +1943,10 @@
         <v>45590</v>
       </c>
       <c r="I13" s="20" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J13" s="16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
@@ -1957,10 +1954,10 @@
         <v>5</v>
       </c>
       <c r="B14" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="C14" s="16" t="s">
-        <v>11</v>
+        <v>22</v>
+      </c>
+      <c r="C14" s="16">
+        <v>3</v>
       </c>
       <c r="D14" s="8">
         <v>45586</v>
@@ -1978,10 +1975,10 @@
         <v>45590</v>
       </c>
       <c r="I14" s="20" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J14" s="16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
@@ -1989,10 +1986,10 @@
         <v>5</v>
       </c>
       <c r="B15" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="C15" s="16" t="s">
-        <v>11</v>
+        <v>22</v>
+      </c>
+      <c r="C15" s="16">
+        <v>3</v>
       </c>
       <c r="D15" s="8">
         <v>45586</v>
@@ -2010,10 +2007,10 @@
         <v>45590</v>
       </c>
       <c r="I15" s="20" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J15" s="16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
@@ -2021,10 +2018,10 @@
         <v>5</v>
       </c>
       <c r="B16" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="C16" s="16" t="s">
-        <v>11</v>
+        <v>22</v>
+      </c>
+      <c r="C16" s="16">
+        <v>3</v>
       </c>
       <c r="D16" s="8">
         <v>45586</v>
@@ -2042,10 +2039,10 @@
         <v>45590</v>
       </c>
       <c r="I16" s="20" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J16" s="16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
@@ -2053,10 +2050,10 @@
         <v>5</v>
       </c>
       <c r="B17" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="C17" s="16" t="s">
-        <v>11</v>
+        <v>23</v>
+      </c>
+      <c r="C17" s="16">
+        <v>3</v>
       </c>
       <c r="D17" s="8">
         <v>45586</v>
@@ -2074,10 +2071,10 @@
         <v>45590</v>
       </c>
       <c r="I17" s="20" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J17" s="16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
@@ -2085,10 +2082,10 @@
         <v>5</v>
       </c>
       <c r="B18" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="C18" s="16" t="s">
-        <v>11</v>
+        <v>24</v>
+      </c>
+      <c r="C18" s="16">
+        <v>3</v>
       </c>
       <c r="D18" s="8">
         <v>45586</v>
@@ -2106,10 +2103,10 @@
         <v>45590</v>
       </c>
       <c r="I18" s="20" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J18" s="16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
@@ -2117,10 +2114,10 @@
         <v>5</v>
       </c>
       <c r="B19" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="C19" s="16" t="s">
-        <v>11</v>
+        <v>25</v>
+      </c>
+      <c r="C19" s="16">
+        <v>3</v>
       </c>
       <c r="D19" s="8">
         <v>45586</v>
@@ -2138,10 +2135,10 @@
         <v>45590</v>
       </c>
       <c r="I19" s="20" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J19" s="16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
@@ -2149,10 +2146,10 @@
         <v>5</v>
       </c>
       <c r="B20" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="C20" s="16" t="s">
-        <v>11</v>
+        <v>25</v>
+      </c>
+      <c r="C20" s="16">
+        <v>3</v>
       </c>
       <c r="D20" s="8">
         <v>45586</v>
@@ -2170,10 +2167,10 @@
         <v>45590</v>
       </c>
       <c r="I20" s="20" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J20" s="16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
@@ -2181,10 +2178,10 @@
         <v>5</v>
       </c>
       <c r="B21" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="C21" s="16" t="s">
-        <v>11</v>
+        <v>26</v>
+      </c>
+      <c r="C21" s="16">
+        <v>3</v>
       </c>
       <c r="D21" s="8">
         <v>45586</v>
@@ -2202,10 +2199,10 @@
         <v>45590</v>
       </c>
       <c r="I21" s="20" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J21" s="16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
@@ -2213,10 +2210,10 @@
         <v>5</v>
       </c>
       <c r="B22" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="C22" s="16" t="s">
-        <v>11</v>
+        <v>27</v>
+      </c>
+      <c r="C22" s="16">
+        <v>3</v>
       </c>
       <c r="D22" s="8">
         <v>45586</v>
@@ -2234,10 +2231,10 @@
         <v>45590</v>
       </c>
       <c r="I22" s="20" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J22" s="16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K22" s="17"/>
       <c r="L22" s="17"/>
